--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rychi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rychi\Desktop\gitcheck2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE565FE9-45B4-46D4-BF02-D33CE7A4309B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38218EE-2B28-499A-862D-FB923CF1F60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{A650D2EE-6A9F-4F1B-A099-48AF5DD07C6F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A650D2EE-6A9F-4F1B-A099-48AF5DD07C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Фамилия</t>
   </si>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB64F322-DDA9-4C0F-BDD6-71BE87D72F12}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,6 +495,23 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
